--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/98.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/98.xlsx
@@ -479,13 +479,13 @@
         <v>-14.96915577837801</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.20259441713306</v>
+        <v>-14.3819818570939</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.331315452868679</v>
+        <v>-5.450059651652309</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.438985869223181</v>
+        <v>-7.413993266119512</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.49331265657169</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.20510247765579</v>
+        <v>-14.37117226291116</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.438687821679865</v>
+        <v>-5.527530854465444</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.586927217016027</v>
+        <v>-7.585206286598873</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.07740255143561</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.52577732706361</v>
+        <v>-14.6878234596675</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.530464258585592</v>
+        <v>-5.589953694142213</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.316760697550307</v>
+        <v>-7.345684062174976</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.77231613658881</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.40093653671693</v>
+        <v>-14.55757542772602</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.156685016589344</v>
+        <v>-5.227570727152743</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.245503422465021</v>
+        <v>-7.278396660665625</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.56725628106718</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.54000433704633</v>
+        <v>-14.68343802050788</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.172051165172058</v>
+        <v>-5.203081691756367</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.157779972251967</v>
+        <v>-7.241885557383505</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.46015312250729</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.88178991810549</v>
+        <v>-15.01385666060146</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.04875530099533</v>
+        <v>-5.087569126511768</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.881585307319341</v>
+        <v>-7.00700300047631</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.44726008119121</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.19492591892452</v>
+        <v>-15.3079597576876</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.040556436479513</v>
+        <v>-5.047361934038259</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.91472299586329</v>
+        <v>-7.037471291270924</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.51716208125445</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.44627465095949</v>
+        <v>-15.53499056956653</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.791089972088311</v>
+        <v>-4.783888464973345</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.544493172852422</v>
+        <v>-6.677342156447102</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.66109427545555</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.82349575379004</v>
+        <v>-15.88138159509432</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.637775605748725</v>
+        <v>-4.615613737621</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.500291661768644</v>
+        <v>-6.632221512072344</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.85883491261801</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.95870612770144</v>
+        <v>-16.01246075820317</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.769152998276463</v>
+        <v>-4.713115201567884</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.16225594897641</v>
+        <v>-6.281630829645873</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.10030009123135</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.38290569751619</v>
+        <v>-16.42347956550471</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.471334255971473</v>
+        <v>-4.418767654138403</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.043653531391921</v>
+        <v>-6.202521809532322</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.37003653419996</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.78759324092507</v>
+        <v>-16.80581945852493</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.236705927421357</v>
+        <v>-4.164676189251099</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.140856765919923</v>
+        <v>-6.353435673500252</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.67138724885895</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.03016620563392</v>
+        <v>-17.01457516273533</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.958140094158277</v>
+        <v>-3.875569657182951</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.91761982336972</v>
+        <v>-6.133655258804958</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.0085948169257</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.27323296003633</v>
+        <v>-17.23295243245982</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.811997900892456</v>
+        <v>-3.709196753501835</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.628625738459511</v>
+        <v>-5.814989791219442</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.39480137641178</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.77119297645222</v>
+        <v>-17.71984862633588</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.376754064565353</v>
+        <v>-3.257540521122499</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.313015900165817</v>
+        <v>-5.494182938626216</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.83696012529371</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.40840657545845</v>
+        <v>-18.32674549376037</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.196520826416533</v>
+        <v>-3.073601415768557</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.23090502983598</v>
+        <v>-5.408317311022589</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-16.33018294986978</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.93669310146981</v>
+        <v>-18.83978320735382</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.838977976225309</v>
+        <v>-2.709536630416869</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.985154210663633</v>
+        <v>-5.151047991671791</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-16.85838389199051</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.355255646367</v>
+        <v>-19.26172405599605</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.559429452581979</v>
+        <v>-2.406383981620074</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.709971570152458</v>
+        <v>-4.879297433981191</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-17.38850732788883</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.8193299561883</v>
+        <v>-19.75612976441969</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.196264244493803</v>
+        <v>-2.043771231307859</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.641945928606203</v>
+        <v>-4.806084556149139</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-17.89163403144446</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.33110141700322</v>
+        <v>-20.25223195822615</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.947061786473414</v>
+        <v>-1.786096124387107</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.637262260027699</v>
+        <v>-4.799655512119146</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-18.33347508678642</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.74036507083954</v>
+        <v>-20.65769196472001</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.709363161610876</v>
+        <v>-1.557486163290164</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.479797126858102</v>
+        <v>-4.616586649987516</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-18.69442183651191</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.0736388909434</v>
+        <v>-20.99096578482387</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.555207886090181</v>
+        <v>-1.403350443796936</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.440733961991452</v>
+        <v>-4.553640686575986</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-18.94982494167946</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.52266483762833</v>
+        <v>-21.46103401706401</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.399175231932591</v>
+        <v>-1.254744191070189</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.524942216267196</v>
+        <v>-4.6556742598885</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-19.09181941684023</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.97741092234756</v>
+        <v>-21.9078941337069</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.204895877055124</v>
+        <v>-1.061623530820182</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.620928088085337</v>
+        <v>-4.7206491611498</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-19.10475494643611</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.84328590796062</v>
+        <v>-21.79897683872577</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.9948348080112568</v>
+        <v>-0.8370470003884437</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.666566967187987</v>
+        <v>-4.771372607394043</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-18.99145750227309</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.09920586141615</v>
+        <v>-22.08125342820084</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8455734283643435</v>
+        <v>-0.7159609673155612</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.68749680558525</v>
+        <v>-4.796594993820457</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-18.74913972075733</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.12243842204773</v>
+        <v>-22.12166595896275</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6588720341305954</v>
+        <v>-0.5270692980054353</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.592674517401435</v>
+        <v>-4.732500113795203</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-18.39432441711623</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.30944782371409</v>
+        <v>-22.35219729975839</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7263598849214893</v>
+        <v>-0.5912815141954962</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.415369794365898</v>
+        <v>-4.53548780407913</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-17.93912879457823</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.41586194717936</v>
+        <v>-22.48413203906896</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5260768296114515</v>
+        <v>-0.3924847169730006</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.628838501196005</v>
+        <v>-4.75071166437446</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-17.40848581812744</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.42828980263506</v>
+        <v>-22.51456610681551</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6681660361846007</v>
+        <v>-0.5510645437082539</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.409713213420877</v>
+        <v>-4.525348003837149</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-16.82284170525748</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.34346064448722</v>
+        <v>-22.42749289451575</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5808092614865644</v>
+        <v>-0.4622263999295423</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.399045400437268</v>
+        <v>-4.523495070234588</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-16.2111456430378</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.10140591450626</v>
+        <v>-22.18530616134938</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5762429290728659</v>
+        <v>-0.454428433976813</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.257009972939655</v>
+        <v>-4.375592834496677</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-15.5939525769842</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.8948013733173</v>
+        <v>-21.97029252834933</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6799729877682003</v>
+        <v>-0.5686503014085469</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.937425372063159</v>
+        <v>-4.052077472099182</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-14.99797711707316</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.73458372928163</v>
+        <v>-21.80390495764762</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6802907732145498</v>
+        <v>-0.5969674291817183</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.796450859055666</v>
+        <v>-3.928634937716446</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-14.43673384194763</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.76205994787369</v>
+        <v>-21.85174388984038</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8271663175104087</v>
+        <v>-0.7373112603033788</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.751569776017387</v>
+        <v>-3.856287414099838</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.92940564219603</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27379972108176</v>
+        <v>-21.3605942599901</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.9478758970545387</v>
+        <v>-0.8427475823952666</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.697673364316516</v>
+        <v>-3.80183365561614</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.47950425192613</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.24536036813692</v>
+        <v>-21.29983368264809</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.184313158145412</v>
+        <v>-1.090620230547855</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.339494943232594</v>
+        <v>-3.414267414255191</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.09626613451422</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.64324006042141</v>
+        <v>-20.65279317983936</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.13785292588912</v>
+        <v>-1.060782621639073</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.294012512349684</v>
+        <v>-3.392936677294841</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.77369800192793</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.41221981893908</v>
+        <v>-20.43462613741015</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.368604271993771</v>
+        <v>-1.309564625068907</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.130910354262535</v>
+        <v>-3.214297255384636</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.51511565000559</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.87930340342475</v>
+        <v>-19.90080525562544</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.207716834017334</v>
+        <v>-1.153629751048654</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.844971898644147</v>
+        <v>-2.909712127575835</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.30565280172376</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.3691453148759</v>
+        <v>-19.37919222398741</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.282679976307741</v>
+        <v>-1.245269295762108</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.514553258550567</v>
+        <v>-2.589091057243552</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.14172301075621</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.99106374683677</v>
+        <v>-18.99115174896037</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.408689239295607</v>
+        <v>-1.346530405989651</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.346395867363027</v>
+        <v>-2.411360990610593</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.99946296897673</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.60733048685948</v>
+        <v>-18.58997451248193</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.371747903409198</v>
+        <v>-1.314810529437106</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.348820814769017</v>
+        <v>-2.421999469553</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.8696499423461</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.30530230964208</v>
+        <v>-18.28663119241733</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.440042440333133</v>
+        <v>-1.395068466164382</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.000083065945107</v>
+        <v>-2.095330697726344</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.72412385655944</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.84661079638125</v>
+        <v>-17.7839043943062</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.433271165822456</v>
+        <v>-1.406220290827815</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.03486346079634</v>
+        <v>-2.116338760233477</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.55343868627365</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.41303900040263</v>
+        <v>-17.36008616702708</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.53227844388435</v>
+        <v>-1.492618820179936</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.066730007554892</v>
+        <v>-2.152312072760238</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.3337023653692</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.98261083583944</v>
+        <v>-16.92309695524849</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.602743699857195</v>
+        <v>-1.579814257651364</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.936741092977357</v>
+        <v>-2.033949216512227</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.06375709862061</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.7297807347238</v>
+        <v>-16.68017198204522</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.613372400785868</v>
+        <v>-1.558155957230931</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.937982900721553</v>
+        <v>-2.038183096458975</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.73411206668393</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.28382508435129</v>
+        <v>-16.2125238082042</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.61497110603135</v>
+        <v>-1.542931589847358</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.086349592111821</v>
+        <v>-2.187786706586572</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.35494577224269</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.13083339246492</v>
+        <v>-16.03962896936262</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.461866966987041</v>
+        <v>-1.3993659032004</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.951383668543767</v>
+        <v>-2.083215738710129</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.928544101838932</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.7242440253848</v>
+        <v>-15.62691367667826</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.466086179913189</v>
+        <v>-1.419391275327284</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.78708859278109</v>
+        <v>-1.952957928754914</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.4709791729753</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.75973332623174</v>
+        <v>-15.65537747465744</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.522138643642369</v>
+        <v>-1.472583670039319</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.95583266479266</v>
+        <v>-2.121741112821419</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.989949815857717</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.41396320457605</v>
+        <v>-15.3120665234558</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.46329455699218</v>
+        <v>-1.425531867952129</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.790730902896942</v>
+        <v>-1.956204229314545</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.502273085482617</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.10804826689944</v>
+        <v>-15.00919743705729</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.429149733033646</v>
+        <v>-1.374940424893293</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.177705574426994</v>
+        <v>-2.330232810661006</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.016504792341768</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.97456371241207</v>
+        <v>-14.86753846308843</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.516076275127394</v>
+        <v>-1.46381768072694</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.033196309454722</v>
+        <v>-2.197471829189931</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.546225364683766</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.89244306406849</v>
+        <v>-14.79458959162719</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.578968459463388</v>
+        <v>-1.538355479419925</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.034271890965443</v>
+        <v>-2.227368106181116</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.097914154099864</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.48987734963985</v>
+        <v>-14.38288143435742</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.443337630961433</v>
+        <v>-1.413827585512735</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.365658554418672</v>
+        <v>-2.528824269595092</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.680109725273516</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.53387352243522</v>
+        <v>-14.4200036634979</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.488575611500997</v>
+        <v>-1.442535833835259</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.530535421998512</v>
+        <v>-2.70384582642378</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.296165003347769</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.45059906847106</v>
+        <v>-14.32696586282051</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.481119876028952</v>
+        <v>-1.42345404003369</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.461062634419651</v>
+        <v>-2.621813180203814</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.948880997169605</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.44795411575605</v>
+        <v>-14.3201554762549</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.536096758247411</v>
+        <v>-1.484586181897595</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.780402784952801</v>
+        <v>-2.935037183146454</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.63808966594311</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.24859508274386</v>
+        <v>-14.12337783886844</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.488140489889842</v>
+        <v>-1.437016145082512</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.993372813082483</v>
+        <v>-3.183227616745391</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.362900011183632</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.31306641629787</v>
+        <v>-14.19928455948416</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.568364203569049</v>
+        <v>-1.52032971110161</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.223733038637782</v>
+        <v>-3.369909454951672</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.122496490722556</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.45726278483066</v>
+        <v>-14.32833478474325</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.5995511783731</v>
+        <v>-1.547615258425862</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.432640302061057</v>
+        <v>-3.59350329500316</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.914983169238798</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.49406233951793</v>
+        <v>-14.37077625335494</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.811782966465878</v>
+        <v>-1.757353653016514</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.50325222823991</v>
+        <v>-3.659886230242131</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.73953038921454</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.47714148675154</v>
+        <v>-14.36703127409488</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.773414040574329</v>
+        <v>-1.719742523189337</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.856678534649192</v>
+        <v>-4.028874245508803</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.592145976672442</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.65549245725659</v>
+        <v>-14.52726847415802</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.951936126319729</v>
+        <v>-1.901432685384497</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.983118030241346</v>
+        <v>-4.149891832485548</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.469365328254746</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.78476757683156</v>
+        <v>-14.65655337174672</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.992480660267054</v>
+        <v>-1.941160755185048</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.976253864600197</v>
+        <v>-4.120376898029983</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.363788612765785</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.9614367289744</v>
+        <v>-14.84822199695725</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.029177545810118</v>
+        <v>-1.991991759580363</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.058364734930034</v>
+        <v>-4.259361585242641</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.269433415749114</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.94125979763464</v>
+        <v>-14.83144781439686</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.142240718614393</v>
+        <v>-2.106785640815526</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.940119214846829</v>
+        <v>-4.139507581900221</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.176688858557918</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.12909055245465</v>
+        <v>-15.02291599032585</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.185268868050112</v>
+        <v>-2.16214875457647</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.117521718019705</v>
+        <v>-4.31178640587657</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.080853708406839</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.43372945933898</v>
+        <v>-15.33775825454144</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.345066057495226</v>
+        <v>-2.310803897371887</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.210613297772633</v>
+        <v>-4.384613052166135</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.973139914208947</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.48408623006821</v>
+        <v>-15.39912995774183</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.416646007033728</v>
+        <v>-2.386246162335251</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.044807518888079</v>
+        <v>-4.203807800213887</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.851284529406307</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.86937908323604</v>
+        <v>-15.78504860378862</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.585844756683921</v>
+        <v>-2.567281197610245</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.005754132035162</v>
+        <v>-4.124733003148404</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.710589681112916</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.93578646350934</v>
+        <v>-15.85505918212285</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.788469646283211</v>
+        <v>-2.754476381537551</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.864124492107503</v>
+        <v>-3.97314445623284</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.553342388899461</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.34494744820146</v>
+        <v>-16.30328822068848</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.856700626117876</v>
+        <v>-2.8453630191935</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.88021421370652</v>
+        <v>-3.99632812679575</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.379296475746706</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.77270132600845</v>
+        <v>-16.72896915958389</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.935980761471769</v>
+        <v>-2.909159669799873</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.653559855356343</v>
+        <v>-3.759465522107455</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.195698528787605</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.34335109652163</v>
+        <v>-17.30530973409016</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.151546852247782</v>
+        <v>-3.100241614186377</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.482532617137924</v>
+        <v>-3.566207969665174</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.006733176514492</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.82879036635135</v>
+        <v>-17.81584916517462</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.146677401408335</v>
+        <v>-3.080597584595113</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.348984505561276</v>
+        <v>-3.412658930995976</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.822992372291455</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.41403871136913</v>
+        <v>-18.39515736684911</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.304440763996813</v>
+        <v>-3.236610682725236</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.126886701611063</v>
+        <v>-3.180230655535973</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.651036950755944</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.00056308717918</v>
+        <v>-18.99527318174918</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.417782610192503</v>
+        <v>-3.363001288248721</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.836665475977258</v>
+        <v>-2.889056073563119</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.503032229261879</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.8199948611222</v>
+        <v>-19.81259290472569</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.448529574378531</v>
+        <v>-3.386595635388452</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.799973479441062</v>
+        <v>-2.809081699234124</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.389015440111172</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.46372061727516</v>
+        <v>-20.47749783862612</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.401340880099068</v>
+        <v>-3.331824091458404</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.512079421075908</v>
+        <v>-2.527059338116135</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.321633541278436</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.45794416472411</v>
+        <v>-21.47297786083988</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.364687995617806</v>
+        <v>-3.280905084939485</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.339204138261795</v>
+        <v>-2.356237438186127</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.31361253806298</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.26568143424147</v>
+        <v>-22.29123627313483</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.3100875669281</v>
+        <v>-3.241983701271975</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.910531127163826</v>
+        <v>-1.867058078103218</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.375586545684033</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.66408406838515</v>
+        <v>-23.70275611270245</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.270203048907808</v>
+        <v>-3.175018974215841</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.692672092167229</v>
+        <v>-1.632708422944517</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.520660362722786</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.69992284228529</v>
+        <v>-24.74929692263426</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.153781128385963</v>
+        <v>-3.06269404144847</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.514013114229556</v>
+        <v>-1.437470822721135</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.75433523771567</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.13512014210937</v>
+        <v>-26.1894223413802</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.089622691271438</v>
+        <v>-2.97735642658647</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.339876467643779</v>
+        <v>-1.251634782702831</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.087421882089835</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.48641230608346</v>
+        <v>-27.54602885581862</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.064683867243305</v>
+        <v>-2.95604035664672</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.135002634885708</v>
+        <v>-1.004681267841224</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.516204434473198</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.12829726021324</v>
+        <v>-29.20575624050921</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.128118731341526</v>
+        <v>-2.981003625709188</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.243553254351821</v>
+        <v>-1.096135030293734</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.046413347092094</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.65082200069416</v>
+        <v>-30.73013880359956</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.207183750393275</v>
+        <v>-3.044824721349896</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.132142565868563</v>
+        <v>-0.9938667846516076</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.664170020241107</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.37674164935591</v>
+        <v>-32.4585714017909</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.075249011082708</v>
+        <v>-2.9201941582985</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.540125299905749</v>
+        <v>-1.397434745487969</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.370897646112626</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.34780588033851</v>
+        <v>-34.43276215266489</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.056661006974697</v>
+        <v>-2.878104698181229</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.452475184795697</v>
+        <v>-1.323146286145196</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.145428549520139</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.41056099060666</v>
+        <v>-36.51012072644452</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.24647669858267</v>
+        <v>-3.042458442026309</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.567591740484077</v>
+        <v>-1.448392864061824</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.98225172932796</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.51946832569849</v>
+        <v>-38.5937445625241</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.299458865999427</v>
+        <v>-3.063373613402971</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.944925290472572</v>
+        <v>-1.824157042846039</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.864214007175078</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.45819910976675</v>
+        <v>-40.54376895245493</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.371503271190286</v>
+        <v>-3.121865691558742</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.295090629301622</v>
+        <v>-2.209141888581257</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.774483078995591</v>
       </c>
       <c r="E97" t="n">
-        <v>-42.60623805582136</v>
+        <v>-42.68665488527182</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.291274668504212</v>
+        <v>-3.038346787251234</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.646443996799332</v>
+        <v>-2.569989707414515</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.713199113517044</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.87780509387889</v>
+        <v>-44.94079994735909</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.367279169257271</v>
+        <v>-3.065617667554885</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.03025548088649</v>
+        <v>-2.951982480947181</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.64476804647284</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.01712205168293</v>
+        <v>-47.07430387599837</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.193352749966772</v>
+        <v>-2.866400415741835</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.387045424020208</v>
+        <v>-3.335300175340781</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.60612887614847</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.49948106531093</v>
+        <v>-49.53976159288744</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.268868350033141</v>
+        <v>-2.917593206645301</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.132755863417012</v>
+        <v>-4.129250445493434</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.51310722537276</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.7565338642323</v>
+        <v>-51.76535485487194</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.272090205558437</v>
+        <v>-2.869764052466273</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.496458862260549</v>
+        <v>-4.49563262010004</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.4947780263417</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.98048808666466</v>
+        <v>-53.98818093896975</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.280958864015021</v>
+        <v>-2.854441904945361</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.207408462833587</v>
+        <v>-5.239206563496001</v>
       </c>
     </row>
   </sheetData>
